--- a/src/test/resources/com/abruno/excel/testdata.xlsx
+++ b/src/test/resources/com/abruno/excel/testdata.xlsx
@@ -42,23 +42,23 @@
     <t>runmode</t>
   </si>
   <si>
-    <t>trainer@way2automation.com</t>
-  </si>
-  <si>
-    <t>Selenium@123</t>
+    <t>someuser1@something.com</t>
+  </si>
+  <si>
+    <t>po12398fe</t>
   </si>
   <si>
     <t>accountname</t>
   </si>
   <si>
-    <t>jebruno</t>
+    <t>someusername</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -72,12 +72,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8.0"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,7 +98,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -407,11 +401,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-  </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
